--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Network_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Network_JS.xlsx
@@ -186,7 +186,7 @@
 validate7;</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(5);
+    <t>wait(5);
 validate1;
 link_Click(network_test_link);
 wait(5);
@@ -208,10 +208,10 @@
 validate6;
 ClickRunTest(runtest_bottom_xpath);
 validate7;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
+wifi_Mode(ON);</t>
+  </si>
+  <si>
+    <t>wait(5);
 validate1;
 link_Click(network_test_link);
 wait(5);
@@ -233,7 +233,7 @@
 validate6;
 ClickRunTest(runtest_bottom_xpath);
 validate7;
-</t>
+wifi_Mode(ON);</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Network_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Network_JS.xlsx
@@ -72,168 +72,137 @@
 hasWifiNetwork with wifi network</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Network JS specs
-};
-validate3
-{
-validate_Text_Exists=VT200-0406
-};
-validate4
-{
-validate_Result=true
-};
-validate5
-{
-validate_AppMinimized=HomeScreen
-};
-validate6
-{
-validate_Text_Exists=VT200-0406
-};
-validate7
-{
-validate_Result=false
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Network JS specs
-};
-validate3
-{
-validate_Text_Exists=VT200-0407
-};
-validate4
-{
-validate_Result=true
-};
-validate5
-{
-validate_AppMinimized=HomeScreen
-};
-validate6
-{
-validate_Text_Exists=VT200-0407
-};
-validate7
-{
-validate_Result=false
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Network JS specs
-};
-validate3
-{
-validate_Text_Exists=VT200-0401
-};
-validate4
-{
-validate_AppMinimized=HomeScreen
-};
-validate5
-{
-validate_Result=disconnected
-};
-validate6
-{
-validate_AppMinimized=HomeScreen
-};
-validate7
-{
-validate_Result=connected
-};</t>
-  </si>
-  <si>
-    <t>wait(5);
+    <t>wait(3);
 validate1;
 link_Click(network_test_link);
-wait(5);
 validate2;
-SelectTestToRun(VT200_0401_string);
+SelectTestToRun(VT200_0651_string);
 ClickRunTest(runtest_top_xpath);
-wait(5);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
-press_Key(Home);
+wifi_Mode(OFF);
+press_Key(Back);
+validate3;
 validate4;
-wifi_Mode(OFF);
-launch_App_Device(com.rhomobile.compliancejs);
+wifi_Mode(ON);
 wait(5);
-validate5;
-press_Key(Home);
-validate6;
-wifi_Mode(ON);
-launch_App_Device(com.rhomobile.compliancejs);
-wait(5);
-validate7;</t>
-  </si>
-  <si>
-    <t>wait(5);
+press_Key(Back);
+validate3;
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
 validate1;
 link_Click(network_test_link);
-wait(5);
 validate2;
-SelectTestToRun(VT200_0407_string);
+SelectTestToRun(VT200_0654_string);
 ClickRunTest(runtest_top_xpath);
-wait(5);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 validate4;
-press_Key(Home);
+wifi_Mode(OFF);
+wait(5);
+press_Key(Back);
+validate3;
+SelectTestToRun(VT200_0654_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
 validate5;
-wifi_Mode(OFF);
-launch_App_Device(com.rhomobile.compliancejs);
+wifi_Mode(ON);
 wait(5);
-SelectTestToRun(VT200_0407_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-validate7;
-wifi_Mode(ON);</t>
-  </si>
-  <si>
-    <t>wait(5);
+press_Key(Back);
+validate3;</t>
+  </si>
+  <si>
+    <t>wait(3);
 validate1;
 link_Click(network_test_link);
-wait(5);
 validate2;
-SelectTestToRun(VT200_0406_string);
+SelectTestToRun(VT200_0655_string);
 ClickRunTest(runtest_top_xpath);
-wait(5);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 validate4;
-press_Key(Home);
+wifi_Mode(OFF);
+wait(5);
+press_Key(Back);
+wait(5);
+SelectTestToRun(VT200_0655_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
 validate5;
-wifi_Mode(OFF);
-launch_App_Device(com.rhomobile.compliancejs);
+wifi_Mode(ON);
 wait(5);
-SelectTestToRun(VT200_0406_string);
-ClickRunTest(runtest_top_xpath);
-wait(5);
-validate6;
-ClickRunTest(runtest_bottom_xpath);
-validate7;
-wifi_Mode(ON);</t>
+press_Key(Back);
+validate3;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0651
+};
+validate4
+{
+validate_Result=disconnected
+};
+validate5
+{
+validate_Result=connected
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0654
+};
+validate4
+{
+validate_Result=true
+};
+validate5
+{
+validate_Result=false
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Network JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0655
+};
+validate4
+{
+validate_Result=true
+};
+validate5
+{
+validate_Result=false
+};</t>
   </si>
 </sst>
 </file>
@@ -696,7 +665,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -742,7 +711,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="315.75" thickBot="1">
+    <row r="2" spans="1:11" ht="225.75" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -762,10 +731,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
@@ -773,7 +742,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="315.75" thickBot="1">
+    <row r="3" spans="1:11" ht="248.25" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -791,16 +760,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="315.75" thickBot="1">
+    <row r="4" spans="1:11" ht="248.25" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -818,10 +787,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -843,10 +812,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
